--- a/InputData/trans/EoFoNVFE/Effect of Feebate on New Veh Fuel Econ.xlsx
+++ b/InputData/trans/EoFoNVFE/Effect of Feebate on New Veh Fuel Econ.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\EoFoNVFE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="25875" windowHeight="11310"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="EoFoNVFE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -66,9 +71,6 @@
     <t>Page 761, Section 3, Paragrah 1 and Page 771, Section A.2, Paragraph 2</t>
   </si>
   <si>
-    <t>Effect of Feebate</t>
-  </si>
-  <si>
     <t>New Vehicle Fuel Econ</t>
   </si>
   <si>
@@ -136,12 +138,15 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Effect of Feebate (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,9 +290,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -296,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -313,6 +318,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -361,7 +369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,7 +404,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,12 +627,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>33</v>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -649,7 +657,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -658,91 +666,91 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>1.335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>1.335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,7 +797,7 @@
         <v>500</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -823,45 +831,45 @@
         <v>3.2000000000000003E-4</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <f>B6/About!A26</f>
         <v>2.3970037453183523E-4</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>2000</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <f>B7*B9</f>
         <v>0.47940074906367047</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +884,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -884,14 +894,14 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
-        <v>16</v>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <f>Data!B11</f>
